--- a/column_mapping.xlsx
+++ b/column_mapping.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>DataFrame Column Header</t>
   </si>
@@ -74,32 +74,50 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>DATE</t>
+    <t>PAYMENT SOURCE</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>chName</t>
+  </si>
+  <si>
+    <t>SQL Column Name</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>CUSTOMER BLOCK CODE</t>
+  </si>
+  <si>
+    <t>ENDO_DATE</t>
+  </si>
+  <si>
+    <t>lev</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t>EndoDate</t>
   </si>
   <si>
     <t>ResultDate</t>
   </si>
   <si>
-    <t>PAYMENT SOURCE</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>chName</t>
-  </si>
-  <si>
-    <t>SQL Column Name</t>
-  </si>
-  <si>
-    <t>OB</t>
+    <t>RESULT_DATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +132,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,13 +159,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +498,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -480,7 +506,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -512,58 +538,82 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
